--- a/Source_file_sl/gesture2.xlsx
+++ b/Source_file_sl/gesture2.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Sr_No.</t>
-  </si>
-  <si>
-    <t>Gesture_name</t>
-  </si>
-  <si>
-    <t>Count_defect</t>
-  </si>
-  <si>
-    <t>Area_ratio</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,16 +43,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -124,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +198,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,70 +409,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sr_No.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Gesture_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Count_defect</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Area_ratio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="n">
+        <v>69.63967971530249</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.45142730692631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="n">
+        <v>56.80343069077423</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>35.09071785432553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>66.31276709401709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>51.07516177202588</v>
+      <c r="D5" t="n">
+        <v>54.85889058807174</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Source_file_sl/gesture2.xlsx
+++ b/Source_file_sl/gesture2.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -508,6 +508,22 @@
         <v>54.85889058807174</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> five</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.95540475036354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
